--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_23-33.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_23-33.xlsx
@@ -3260,7 +3260,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
